--- a/BackTest/2020-01-25 BackTest LTC.xlsx
+++ b/BackTest/2020-01-25 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-546.8064195200001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-624.6774195200001</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-798.0595195200001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-814.4957195200001</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-788.4988195200001</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-786.8676195200001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-814.1365195200001</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-812.9881195200001</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-498.22661952</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-432.96081952</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-442.96081952</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-440.57421952</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-477.4902258</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-503.9807258</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-269.3482258</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1243.9124258</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1600.4522258</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2778.1532258</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2652.2825258</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2554.2227258</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2318.0556258</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2440.3187258</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1928.6925258</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2141.5239258</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2128.6376258</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2137.1565258</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2493.7717258</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2571.6105258</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2584.7593258</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2381.98377468</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2382.26717468</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2382.18167468</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2386.238274679999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-2496.12477468</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2478.092913449999</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-2478.119113449999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-2476.088613449999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-2438.799513449999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2378.366113449999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2380.217913449999</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2416.954213449999</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2415.97971345</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-2415.97971345</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-2430.97971345</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2439.984613449999</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-2439.984613449999</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2439.984613449999</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-2439.984613449999</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-2457.45661345</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-2457.45661345</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2324.110712800001</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2341.557012800001</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2335.249212800001</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2335.249212800001</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2338.147112800001</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2338.147112800001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2348.629512800001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2348.4716128</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2353.4716128</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2353.5531128</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2354.6423128</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -14344,10 +14344,14 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J423" t="n">
+        <v>59800</v>
+      </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
@@ -14377,11 +14381,19 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14422,19 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,10 +14463,14 @@
         <v>-3858.3786156</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>59800</v>
+      </c>
+      <c r="J426" t="n">
+        <v>59800</v>
+      </c>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
@@ -14476,15 +14500,19 @@
         <v>-3545.2570156</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>59700</v>
       </c>
       <c r="J427" t="n">
-        <v>59700</v>
-      </c>
-      <c r="K427" t="inlineStr"/>
+        <v>59800</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,17 +14541,17 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>60000</v>
       </c>
       <c r="J428" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L428" t="n">
@@ -14554,17 +14582,17 @@
         <v>-3546.2347156</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>59900</v>
       </c>
       <c r="J429" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14595,17 +14623,17 @@
         <v>-3640.8137156</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>59900</v>
       </c>
       <c r="J430" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -14636,13 +14664,13 @@
         <v>-3656.1137156</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>59850</v>
       </c>
       <c r="J431" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -14677,13 +14705,13 @@
         <v>-3648.2717156</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>59650</v>
       </c>
       <c r="J432" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -14718,13 +14746,13 @@
         <v>-3701.4354156</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>59900</v>
       </c>
       <c r="J433" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -14759,11 +14787,13 @@
         <v>-3811.577115600001</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>59650</v>
+      </c>
       <c r="J434" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -14798,11 +14828,13 @@
         <v>-3824.7821156</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>59550</v>
+      </c>
       <c r="J435" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -14837,13 +14869,13 @@
         <v>-3845.5871156</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>59400</v>
       </c>
       <c r="J436" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -14878,13 +14910,13 @@
         <v>-4097.9733156</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>59200</v>
       </c>
       <c r="J437" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -14919,13 +14951,13 @@
         <v>-4019.01121392</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>59150</v>
       </c>
       <c r="J438" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -14960,13 +14992,13 @@
         <v>-4013.51275688</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>59550</v>
       </c>
       <c r="J439" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15001,13 +15033,13 @@
         <v>-4004.90635688</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>59600</v>
       </c>
       <c r="J440" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15042,13 +15074,13 @@
         <v>-4085.40965688</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>59800</v>
       </c>
       <c r="J441" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15083,13 +15115,13 @@
         <v>-4085.40965688</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>59650</v>
       </c>
       <c r="J442" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15124,13 +15156,13 @@
         <v>-4083.77115688</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>59650</v>
       </c>
       <c r="J443" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15165,13 +15197,13 @@
         <v>-4049.73635688</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>60000</v>
       </c>
       <c r="J444" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15206,11 +15238,13 @@
         <v>-4055.609456879999</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>60250</v>
+      </c>
       <c r="J445" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15245,11 +15279,13 @@
         <v>-4013.609456879999</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>60100</v>
+      </c>
       <c r="J446" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15284,11 +15320,13 @@
         <v>-4013.609456879999</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>60350</v>
+      </c>
       <c r="J447" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15323,11 +15361,13 @@
         <v>-4015.270656879999</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>60350</v>
+      </c>
       <c r="J448" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15362,11 +15402,13 @@
         <v>-4015.270656879999</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>60200</v>
+      </c>
       <c r="J449" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15405,7 +15447,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15444,7 +15486,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15483,7 +15525,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15522,7 +15564,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15561,7 +15603,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15600,7 +15642,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15639,7 +15681,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15678,7 +15720,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15717,7 +15759,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15756,7 +15798,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15795,7 +15837,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15834,7 +15876,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15873,7 +15915,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15912,7 +15954,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15951,7 +15993,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15990,7 +16032,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16029,7 +16071,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16068,7 +16110,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16107,7 +16149,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16146,7 +16188,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16185,7 +16227,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16224,7 +16266,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16259,13 +16301,11 @@
         <v>-4770.07085688</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>59900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16304,7 +16344,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16343,7 +16383,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16378,11 +16418,13 @@
         <v>-4767.74315688</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>59800</v>
+      </c>
       <c r="J475" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16417,11 +16459,13 @@
         <v>-4767.74315688</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>59950</v>
+      </c>
       <c r="J476" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16460,7 +16504,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16499,7 +16543,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16538,7 +16582,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16577,7 +16621,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16616,7 +16660,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16655,7 +16699,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16690,11 +16734,13 @@
         <v>-3795.339356880001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>60450</v>
+      </c>
       <c r="J483" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16733,7 +16779,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16772,7 +16818,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16807,13 +16853,11 @@
         <v>-3714.002056880001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>60800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16848,13 +16892,11 @@
         <v>-3634.408856880001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>60900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16889,13 +16931,11 @@
         <v>-3653.792856880001</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>61100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16930,13 +16970,11 @@
         <v>-3652.592856880001</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>60950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16975,7 +17013,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17014,7 +17052,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17053,7 +17091,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17092,7 +17130,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17131,7 +17169,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17170,7 +17208,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17209,7 +17247,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17248,7 +17286,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17287,7 +17325,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17326,7 +17364,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17365,7 +17403,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17404,7 +17442,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17443,7 +17481,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17482,7 +17520,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17521,7 +17559,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17560,7 +17598,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17599,7 +17637,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17638,7 +17676,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17677,7 +17715,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17716,7 +17754,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17755,7 +17793,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17794,7 +17832,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17833,7 +17871,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17872,7 +17910,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17911,7 +17949,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17950,7 +17988,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17989,7 +18027,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18028,7 +18066,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18067,7 +18105,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18106,7 +18144,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18145,7 +18183,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18184,7 +18222,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18223,7 +18261,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18262,7 +18300,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18301,7 +18339,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18340,7 +18378,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18379,7 +18417,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18418,7 +18456,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18457,7 +18495,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18496,7 +18534,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18535,7 +18573,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18574,7 +18612,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18613,7 +18651,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18648,11 +18686,11 @@
         <v>-2421.628659190002</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18687,11 +18725,11 @@
         <v>-2321.342159190002</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18730,7 +18768,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18769,7 +18807,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18808,7 +18846,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18847,7 +18885,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18886,7 +18924,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18925,7 +18963,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18964,7 +19002,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19003,7 +19041,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19042,7 +19080,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19081,7 +19119,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19120,7 +19158,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19159,7 +19197,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19198,7 +19236,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19237,7 +19275,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19276,7 +19314,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19315,7 +19353,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19354,7 +19392,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19393,7 +19431,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19432,7 +19470,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19471,7 +19509,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19510,7 +19548,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19549,7 +19587,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19588,7 +19626,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19627,7 +19665,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19666,7 +19704,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19701,19 +19739,19 @@
         <v>-2803.116978480003</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L560" t="n">
-        <v>1.049438860971524</v>
+        <v>1</v>
       </c>
       <c r="M560" t="inlineStr"/>
     </row>
@@ -19743,8 +19781,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19776,8 +19820,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19809,8 +19859,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19842,8 +19898,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19875,8 +19937,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19908,8 +19976,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19941,8 +20015,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19974,8 +20054,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20007,8 +20093,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20040,8 +20132,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20073,8 +20171,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20106,8 +20210,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20139,8 +20249,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20172,8 +20288,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20205,8 +20327,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20238,8 +20366,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20271,8 +20405,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20304,8 +20444,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20337,8 +20483,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20370,8 +20522,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20403,8 +20561,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20436,14 +20600,20 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>59800</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
       <c r="M582" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LTC.xlsx
+++ b/BackTest/2020-01-25 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>-788.4988195200001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-786.8676195200001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-814.1365195200001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-812.9881195200001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-498.22661952</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-432.96081952</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-442.96081952</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-440.57421952</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-477.4902258</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-503.9807258</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-269.3482258</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-1243.9124258</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-1600.4522258</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2778.1532258</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2652.2825258</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2554.2227258</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2318.0556258</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2440.3187258</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-1928.6925258</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2141.5239258</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2128.6376258</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2137.1565258</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2493.7717258</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2571.6105258</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2584.7593258</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2312.966709660001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2324.110712800001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2341.557012800001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2335.249212800001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2335.249212800001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2338.147112800001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2338.147112800001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2348.629512800001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2348.4716128</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2353.4716128</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2353.5531128</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2354.6423128</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -14245,11 +14245,17 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>59650</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14284,17 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>59800</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14323,17 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>59800</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14349,10 +14367,12 @@
       <c r="I423" t="n">
         <v>59800</v>
       </c>
-      <c r="J423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14386,12 +14406,10 @@
       <c r="I424" t="n">
         <v>59800</v>
       </c>
-      <c r="J424" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L424" t="n">
@@ -14427,12 +14445,10 @@
       <c r="I425" t="n">
         <v>59800</v>
       </c>
-      <c r="J425" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L425" t="n">
@@ -14468,10 +14484,12 @@
       <c r="I426" t="n">
         <v>59800</v>
       </c>
-      <c r="J426" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14505,12 +14523,10 @@
       <c r="I427" t="n">
         <v>59700</v>
       </c>
-      <c r="J427" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14546,9 +14562,7 @@
       <c r="I428" t="n">
         <v>60000</v>
       </c>
-      <c r="J428" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14587,9 +14601,7 @@
       <c r="I429" t="n">
         <v>59900</v>
       </c>
-      <c r="J429" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14628,9 +14640,7 @@
       <c r="I430" t="n">
         <v>59900</v>
       </c>
-      <c r="J430" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14669,9 +14679,7 @@
       <c r="I431" t="n">
         <v>59850</v>
       </c>
-      <c r="J431" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,9 +14718,7 @@
       <c r="I432" t="n">
         <v>59650</v>
       </c>
-      <c r="J432" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14751,9 +14757,7 @@
       <c r="I433" t="n">
         <v>59900</v>
       </c>
-      <c r="J433" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14792,9 +14796,7 @@
       <c r="I434" t="n">
         <v>59650</v>
       </c>
-      <c r="J434" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,9 +14835,7 @@
       <c r="I435" t="n">
         <v>59550</v>
       </c>
-      <c r="J435" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14874,9 +14874,7 @@
       <c r="I436" t="n">
         <v>59400</v>
       </c>
-      <c r="J436" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14915,9 +14913,7 @@
       <c r="I437" t="n">
         <v>59200</v>
       </c>
-      <c r="J437" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14956,9 +14952,7 @@
       <c r="I438" t="n">
         <v>59150</v>
       </c>
-      <c r="J438" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14997,9 +14991,7 @@
       <c r="I439" t="n">
         <v>59550</v>
       </c>
-      <c r="J439" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15038,9 +15030,7 @@
       <c r="I440" t="n">
         <v>59600</v>
       </c>
-      <c r="J440" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15079,9 +15069,7 @@
       <c r="I441" t="n">
         <v>59800</v>
       </c>
-      <c r="J441" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15120,9 +15108,7 @@
       <c r="I442" t="n">
         <v>59650</v>
       </c>
-      <c r="J442" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15161,9 +15147,7 @@
       <c r="I443" t="n">
         <v>59650</v>
       </c>
-      <c r="J443" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15202,9 +15186,7 @@
       <c r="I444" t="n">
         <v>60000</v>
       </c>
-      <c r="J444" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15238,14 +15220,10 @@
         <v>-4055.609456879999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>60250</v>
-      </c>
-      <c r="J445" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15279,14 +15257,10 @@
         <v>-4013.609456879999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>60100</v>
-      </c>
-      <c r="J446" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15320,14 +15294,10 @@
         <v>-4013.609456879999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J447" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15361,14 +15331,10 @@
         <v>-4015.270656879999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>60350</v>
-      </c>
-      <c r="J448" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15402,14 +15368,10 @@
         <v>-4015.270656879999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>60200</v>
-      </c>
-      <c r="J449" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15446,9 +15408,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15485,9 +15445,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15524,9 +15482,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15563,9 +15519,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15602,9 +15556,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15641,9 +15593,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15680,9 +15630,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15719,9 +15667,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15758,9 +15704,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15797,9 +15741,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15836,9 +15778,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15875,9 +15815,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,9 +15852,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15953,9 +15889,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15992,9 +15926,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16031,9 +15963,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16070,9 +16000,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16109,9 +16037,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16148,9 +16074,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16187,9 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16226,9 +16148,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16265,9 +16185,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16304,9 +16222,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16340,12 +16256,12 @@
         <v>-4770.07085688</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>59800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>59850</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16379,12 +16295,12 @@
         <v>-4771.74315688</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>59800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>59850</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16423,9 +16339,7 @@
       <c r="I475" t="n">
         <v>59800</v>
       </c>
-      <c r="J475" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16464,9 +16378,7 @@
       <c r="I476" t="n">
         <v>59950</v>
       </c>
-      <c r="J476" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16500,12 +16412,12 @@
         <v>-4767.74315688</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>59800</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>59950</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16542,9 +16454,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16581,9 +16491,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16620,9 +16528,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16659,9 +16565,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16698,9 +16602,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16734,14 +16636,10 @@
         <v>-3795.339356880001</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>60450</v>
-      </c>
-      <c r="J483" t="n">
-        <v>59800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16778,9 +16676,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16817,9 +16713,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16856,9 +16750,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16895,9 +16787,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16934,9 +16824,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16973,9 +16861,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17012,9 +16898,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17051,9 +16935,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17090,9 +16972,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17129,9 +17009,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17168,9 +17046,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17207,9 +17083,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17246,9 +17120,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17282,20 +17154,16 @@
         <v>-2874.595964110001</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>59800</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L497" t="n">
-        <v>1</v>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr"/>
     </row>
     <row r="498">
@@ -17321,17 +17189,11 @@
         <v>-2717.137464110001</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17360,17 +17222,11 @@
         <v>-2775.022264110001</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17399,17 +17255,11 @@
         <v>-2775.337664110001</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17438,17 +17288,11 @@
         <v>-2768.608364110001</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17477,17 +17321,11 @@
         <v>-2792.981564110001</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17516,17 +17354,11 @@
         <v>-2791.409564110001</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17555,17 +17387,11 @@
         <v>-2864.309564110001</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17594,17 +17420,11 @@
         <v>-2711.067264110001</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17633,17 +17453,11 @@
         <v>-2711.015264110001</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17672,17 +17486,11 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17711,17 +17519,11 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17750,17 +17552,11 @@
         <v>-2711.135264110001</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17789,17 +17585,11 @@
         <v>-2529.120064110001</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17831,14 +17621,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17870,14 +17654,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17909,14 +17687,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17948,14 +17720,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17987,14 +17753,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18026,14 +17786,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18065,14 +17819,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18104,14 +17852,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18140,17 +17882,11 @@
         <v>-2518.912359190001</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18179,17 +17915,11 @@
         <v>-2451.805959190001</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18221,14 +17951,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18260,14 +17984,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18299,14 +18017,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18338,14 +18050,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18377,14 +18083,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18416,14 +18116,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18455,14 +18149,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18494,14 +18182,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18533,14 +18215,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18572,14 +18248,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18611,14 +18281,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18650,14 +18314,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18689,14 +18347,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18728,14 +18380,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18767,14 +18413,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18806,14 +18446,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18845,14 +18479,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18884,14 +18512,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18923,14 +18545,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18962,14 +18578,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19001,14 +18611,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19040,14 +18644,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19079,14 +18677,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19118,14 +18710,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19157,14 +18743,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19196,14 +18776,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19235,14 +18809,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19274,14 +18842,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19313,14 +18875,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19352,14 +18908,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19391,14 +18941,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19430,14 +18974,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19469,14 +19007,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19508,14 +19040,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19547,14 +19073,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19586,14 +19106,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19625,14 +19139,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19664,14 +19172,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19703,14 +19205,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19742,14 +19238,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19781,14 +19271,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19820,14 +19304,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19859,14 +19337,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19898,14 +19370,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19937,14 +19403,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19976,14 +19436,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20015,14 +19469,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20054,14 +19502,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20093,14 +19535,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20132,14 +19568,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20171,14 +19601,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20210,14 +19634,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20249,14 +19667,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20288,14 +19700,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20327,14 +19733,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20366,14 +19766,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20405,14 +19799,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20444,14 +19832,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20483,14 +19865,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20522,14 +19898,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20561,14 +19931,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20600,20 +19964,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>59800</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
       <c r="M582" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest LTC.xlsx
+++ b/BackTest/2020-01-25 BackTest LTC.xlsx
@@ -451,7 +451,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-198.5629195200001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-546.8064195200001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-624.6774195200001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-798.0595195200001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-794.3698195200001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-814.4957195200001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-766.8009195200001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-788.4988195200001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-786.8676195200001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-814.1365195200001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-812.9881195200001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-695.12901952</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-498.22661952</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-432.96081952</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-442.96081952</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-440.57421952</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-440.7152258</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-472.4902258</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-477.4902258</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-503.9807258</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-504.2807258</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-503.2620258</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-523.4715258</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-218.8175258</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-218.7391258</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-269.3482258</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-859.6154258</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -14245,1804 +14245,1612 @@
         <v>-3857.5575156</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C421" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D421" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E421" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F421" t="n">
+        <v>19.9331</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-3857.5575156</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C422" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D422" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E422" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F422" t="n">
+        <v>22.2862</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-3857.5575156</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C423" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D423" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E423" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.0497</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-3857.5575156</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E424" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F424" t="n">
+        <v>5.4324</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-3857.5575156</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E425" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-3857.5575156</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C426" t="n">
+        <v>59700</v>
+      </c>
+      <c r="D426" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E426" t="n">
+        <v>59700</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.8211000000000001</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-3858.3786156</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C427" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D427" t="n">
+        <v>60050</v>
+      </c>
+      <c r="E427" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F427" t="n">
+        <v>313.1216</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-3545.2570156</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C428" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D428" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E428" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.9777</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-3546.2347156</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C429" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D429" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E429" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F429" t="n">
+        <v>44.5351</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-3546.2347156</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>59950</v>
+      </c>
+      <c r="C430" t="n">
+        <v>59850</v>
+      </c>
+      <c r="D430" t="n">
+        <v>59950</v>
+      </c>
+      <c r="E430" t="n">
+        <v>59850</v>
+      </c>
+      <c r="F430" t="n">
+        <v>94.57899999999999</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-3640.8137156</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C431" t="n">
         <v>59650</v>
       </c>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
+      <c r="D431" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E431" t="n">
+        <v>59650</v>
+      </c>
+      <c r="F431" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-3656.1137156</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C432" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D432" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E432" t="n">
+        <v>59900</v>
+      </c>
+      <c r="F432" t="n">
+        <v>7.842</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-3648.2717156</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>59650</v>
+      </c>
+      <c r="C433" t="n">
+        <v>59650</v>
+      </c>
+      <c r="D433" t="n">
+        <v>59650</v>
+      </c>
+      <c r="E433" t="n">
+        <v>59600</v>
+      </c>
+      <c r="F433" t="n">
+        <v>53.1637</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-3701.4354156</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>59650</v>
+      </c>
+      <c r="C434" t="n">
+        <v>59550</v>
+      </c>
+      <c r="D434" t="n">
+        <v>59650</v>
+      </c>
+      <c r="E434" t="n">
+        <v>59550</v>
+      </c>
+      <c r="F434" t="n">
+        <v>110.1417</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-3811.577115600001</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C435" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D435" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E435" t="n">
+        <v>59400</v>
+      </c>
+      <c r="F435" t="n">
+        <v>13.205</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-3824.7821156</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>59550</v>
+      </c>
+      <c r="C436" t="n">
+        <v>59200</v>
+      </c>
+      <c r="D436" t="n">
+        <v>59550</v>
+      </c>
+      <c r="E436" t="n">
+        <v>59200</v>
+      </c>
+      <c r="F436" t="n">
+        <v>20.805</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-3845.5871156</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>59150</v>
+      </c>
+      <c r="C437" t="n">
+        <v>59150</v>
+      </c>
+      <c r="D437" t="n">
+        <v>59450</v>
+      </c>
+      <c r="E437" t="n">
+        <v>59150</v>
+      </c>
+      <c r="F437" t="n">
+        <v>252.3862</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-4097.9733156</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>59500</v>
+      </c>
+      <c r="C438" t="n">
+        <v>59550</v>
+      </c>
+      <c r="D438" t="n">
+        <v>59550</v>
+      </c>
+      <c r="E438" t="n">
+        <v>59500</v>
+      </c>
+      <c r="F438" t="n">
+        <v>78.96210168</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-4019.01121392</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>59600</v>
+      </c>
+      <c r="C439" t="n">
+        <v>59600</v>
+      </c>
+      <c r="D439" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E439" t="n">
+        <v>59600</v>
+      </c>
+      <c r="F439" t="n">
+        <v>5.49845704</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-4013.51275688</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>59800</v>
+      </c>
+      <c r="C440" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D440" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E440" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F440" t="n">
+        <v>8.606400000000001</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-4004.90635688</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>59700</v>
+      </c>
+      <c r="C441" t="n">
+        <v>59650</v>
+      </c>
+      <c r="D441" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E441" t="n">
+        <v>59650</v>
+      </c>
+      <c r="F441" t="n">
+        <v>80.5033</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-4085.40965688</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>59650</v>
+      </c>
+      <c r="C442" t="n">
+        <v>59650</v>
+      </c>
+      <c r="D442" t="n">
+        <v>59650</v>
+      </c>
+      <c r="E442" t="n">
+        <v>59650</v>
+      </c>
+      <c r="F442" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-4085.40965688</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>59950</v>
+      </c>
+      <c r="C443" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D443" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E443" t="n">
+        <v>59950</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1.6385</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-4083.77115688</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>59650</v>
+      </c>
+      <c r="J443" t="n">
+        <v>59650</v>
+      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C444" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D444" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E444" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F444" t="n">
+        <v>34.0348</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-4049.73635688</v>
+      </c>
+      <c r="H444" t="n">
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>60000</v>
+      </c>
+      <c r="J444" t="n">
+        <v>59650</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C445" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D445" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E445" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F445" t="n">
+        <v>5.8731</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-4055.609456879999</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>59650</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C446" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D446" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E446" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F446" t="n">
+        <v>42</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-4013.609456879999</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C447" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D447" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E447" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F447" t="n">
+        <v>5.4767</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-4013.609456879999</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C448" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D448" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E448" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F448" t="n">
+        <v>1.6612</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-4015.270656879999</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C449" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D449" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E449" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-4015.270656879999</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C450" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D450" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E450" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1.9971</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-4015.270656879999</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C451" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D451" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E451" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-4015.24985688</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C452" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D452" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E452" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F452" t="n">
+        <v>29.9792</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-4015.24985688</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C453" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D453" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E453" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-4014.59065688</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>60400</v>
+      </c>
+      <c r="C454" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D454" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E454" t="n">
+        <v>60400</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-4013.790656879999</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C455" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D455" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E455" t="n">
+        <v>60300</v>
+      </c>
+      <c r="F455" t="n">
+        <v>12.398</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-4026.18865688</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C456" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D456" t="n">
+        <v>60250</v>
+      </c>
+      <c r="E456" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F456" t="n">
+        <v>2.2635</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-4028.45215688</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C457" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D457" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E457" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F457" t="n">
+        <v>60.5086</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-4088.96075688</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>60400</v>
+      </c>
+      <c r="C458" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D458" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E458" t="n">
+        <v>60400</v>
+      </c>
+      <c r="F458" t="n">
+        <v>2.984</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-4085.97675688</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>60400</v>
+      </c>
+      <c r="C459" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D459" t="n">
+        <v>60400</v>
+      </c>
+      <c r="E459" t="n">
+        <v>60400</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-4085.97675688</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>60350</v>
+      </c>
+      <c r="C460" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D460" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E460" t="n">
+        <v>60350</v>
+      </c>
+      <c r="F460" t="n">
+        <v>8.762600000000001</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-4094.73935688</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>60250</v>
+      </c>
+      <c r="C461" t="n">
+        <v>60350</v>
+      </c>
+      <c r="D461" t="n">
+        <v>60350</v>
+      </c>
+      <c r="E461" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F461" t="n">
+        <v>19.3482</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-4094.73935688</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C462" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D462" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E462" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F462" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-4109.139356879999</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C463" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D463" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E463" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F463" t="n">
+        <v>3</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-4106.139356879999</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>60150</v>
+      </c>
+      <c r="J463" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C464" t="n">
+        <v>60200</v>
+      </c>
+      <c r="D464" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E464" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F464" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-4106.139356879999</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>60200</v>
+      </c>
+      <c r="J464" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C465" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D465" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E465" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1.6546</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-4107.793956879999</v>
+      </c>
+      <c r="H465" t="n">
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>60200</v>
+      </c>
+      <c r="J465" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="C466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="D466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="E466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.5642</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-4107.793956879999</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="J466" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C467" t="n">
+        <v>60050</v>
+      </c>
+      <c r="D467" t="n">
+        <v>60100</v>
+      </c>
+      <c r="E467" t="n">
+        <v>60050</v>
+      </c>
+      <c r="F467" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-4128.993956879999</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>60150</v>
+      </c>
+      <c r="J467" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K467" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C421" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D421" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E421" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F421" t="n">
-        <v>19.9331</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-3857.5575156</v>
-      </c>
-      <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C422" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D422" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E422" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F422" t="n">
-        <v>22.2862</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-3857.5575156</v>
-      </c>
-      <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F423" t="n">
-        <v>0.0497</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-3857.5575156</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C424" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D424" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E424" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F424" t="n">
-        <v>5.4324</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-3857.5575156</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C425" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D425" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E425" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F425" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-3857.5575156</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>59700</v>
-      </c>
-      <c r="C426" t="n">
-        <v>59700</v>
-      </c>
-      <c r="D426" t="n">
-        <v>59700</v>
-      </c>
-      <c r="E426" t="n">
-        <v>59700</v>
-      </c>
-      <c r="F426" t="n">
-        <v>0.8211000000000001</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-3858.3786156</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C427" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D427" t="n">
-        <v>60050</v>
-      </c>
-      <c r="E427" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F427" t="n">
-        <v>313.1216</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-3545.2570156</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>59700</v>
-      </c>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>59900</v>
-      </c>
-      <c r="C428" t="n">
-        <v>59900</v>
-      </c>
-      <c r="D428" t="n">
-        <v>59900</v>
-      </c>
-      <c r="E428" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F428" t="n">
-        <v>0.9777</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-3546.2347156</v>
-      </c>
-      <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>60000</v>
-      </c>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>59900</v>
-      </c>
-      <c r="C429" t="n">
-        <v>59900</v>
-      </c>
-      <c r="D429" t="n">
-        <v>59900</v>
-      </c>
-      <c r="E429" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F429" t="n">
-        <v>44.5351</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-3546.2347156</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>59900</v>
-      </c>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>59950</v>
-      </c>
-      <c r="C430" t="n">
-        <v>59850</v>
-      </c>
-      <c r="D430" t="n">
-        <v>59950</v>
-      </c>
-      <c r="E430" t="n">
-        <v>59850</v>
-      </c>
-      <c r="F430" t="n">
-        <v>94.57899999999999</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-3640.8137156</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>59900</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>59700</v>
-      </c>
-      <c r="C431" t="n">
-        <v>59650</v>
-      </c>
-      <c r="D431" t="n">
-        <v>59700</v>
-      </c>
-      <c r="E431" t="n">
-        <v>59650</v>
-      </c>
-      <c r="F431" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-3656.1137156</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>59850</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>59900</v>
-      </c>
-      <c r="C432" t="n">
-        <v>59900</v>
-      </c>
-      <c r="D432" t="n">
-        <v>59900</v>
-      </c>
-      <c r="E432" t="n">
-        <v>59900</v>
-      </c>
-      <c r="F432" t="n">
-        <v>7.842</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-3648.2717156</v>
-      </c>
-      <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>59650</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>59650</v>
-      </c>
-      <c r="C433" t="n">
-        <v>59650</v>
-      </c>
-      <c r="D433" t="n">
-        <v>59650</v>
-      </c>
-      <c r="E433" t="n">
-        <v>59600</v>
-      </c>
-      <c r="F433" t="n">
-        <v>53.1637</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-3701.4354156</v>
-      </c>
-      <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>59900</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>59650</v>
-      </c>
-      <c r="C434" t="n">
-        <v>59550</v>
-      </c>
-      <c r="D434" t="n">
-        <v>59650</v>
-      </c>
-      <c r="E434" t="n">
-        <v>59550</v>
-      </c>
-      <c r="F434" t="n">
-        <v>110.1417</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-3811.577115600001</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>59650</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>59700</v>
-      </c>
-      <c r="C435" t="n">
-        <v>59400</v>
-      </c>
-      <c r="D435" t="n">
-        <v>59700</v>
-      </c>
-      <c r="E435" t="n">
-        <v>59400</v>
-      </c>
-      <c r="F435" t="n">
-        <v>13.205</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-3824.7821156</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>59550</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>59550</v>
-      </c>
-      <c r="C436" t="n">
-        <v>59200</v>
-      </c>
-      <c r="D436" t="n">
-        <v>59550</v>
-      </c>
-      <c r="E436" t="n">
-        <v>59200</v>
-      </c>
-      <c r="F436" t="n">
-        <v>20.805</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-3845.5871156</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>59400</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>59150</v>
-      </c>
-      <c r="C437" t="n">
-        <v>59150</v>
-      </c>
-      <c r="D437" t="n">
-        <v>59450</v>
-      </c>
-      <c r="E437" t="n">
-        <v>59150</v>
-      </c>
-      <c r="F437" t="n">
-        <v>252.3862</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-4097.9733156</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>59200</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>59500</v>
-      </c>
-      <c r="C438" t="n">
-        <v>59550</v>
-      </c>
-      <c r="D438" t="n">
-        <v>59550</v>
-      </c>
-      <c r="E438" t="n">
-        <v>59500</v>
-      </c>
-      <c r="F438" t="n">
-        <v>78.96210168</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-4019.01121392</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>59150</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>59600</v>
-      </c>
-      <c r="C439" t="n">
-        <v>59600</v>
-      </c>
-      <c r="D439" t="n">
-        <v>59600</v>
-      </c>
-      <c r="E439" t="n">
-        <v>59600</v>
-      </c>
-      <c r="F439" t="n">
-        <v>5.49845704</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-4013.51275688</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>59550</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>59800</v>
-      </c>
-      <c r="C440" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D440" t="n">
-        <v>59800</v>
-      </c>
-      <c r="E440" t="n">
-        <v>59800</v>
-      </c>
-      <c r="F440" t="n">
-        <v>8.606400000000001</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-4004.90635688</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>59600</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>59700</v>
-      </c>
-      <c r="C441" t="n">
-        <v>59650</v>
-      </c>
-      <c r="D441" t="n">
-        <v>59700</v>
-      </c>
-      <c r="E441" t="n">
-        <v>59650</v>
-      </c>
-      <c r="F441" t="n">
-        <v>80.5033</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-4085.40965688</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>59800</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>59650</v>
-      </c>
-      <c r="C442" t="n">
-        <v>59650</v>
-      </c>
-      <c r="D442" t="n">
-        <v>59650</v>
-      </c>
-      <c r="E442" t="n">
-        <v>59650</v>
-      </c>
-      <c r="F442" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-4085.40965688</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>59650</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>59950</v>
-      </c>
-      <c r="C443" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D443" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E443" t="n">
-        <v>59950</v>
-      </c>
-      <c r="F443" t="n">
-        <v>1.6385</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-4083.77115688</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>59650</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>60100</v>
-      </c>
-      <c r="C444" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D444" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E444" t="n">
-        <v>60100</v>
-      </c>
-      <c r="F444" t="n">
-        <v>34.0348</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-4049.73635688</v>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>60000</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C445" t="n">
-        <v>60100</v>
-      </c>
-      <c r="D445" t="n">
-        <v>60400</v>
-      </c>
-      <c r="E445" t="n">
-        <v>60100</v>
-      </c>
-      <c r="F445" t="n">
-        <v>5.8731</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-4055.609456879999</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C446" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D446" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E446" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F446" t="n">
-        <v>42</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-4013.609456879999</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C447" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D447" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E447" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F447" t="n">
-        <v>5.4767</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-4013.609456879999</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C448" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D448" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E448" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F448" t="n">
-        <v>1.6612</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-4015.270656879999</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C449" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D449" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E449" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F449" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-4015.270656879999</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C450" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D450" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E450" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F450" t="n">
-        <v>1.9971</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-4015.270656879999</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C451" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D451" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E451" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F451" t="n">
-        <v>0.0208</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-4015.24985688</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C452" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D452" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E452" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F452" t="n">
-        <v>29.9792</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-4015.24985688</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C453" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D453" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E453" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F453" t="n">
-        <v>0.6592</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-4014.59065688</v>
-      </c>
-      <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>60400</v>
-      </c>
-      <c r="C454" t="n">
-        <v>60400</v>
-      </c>
-      <c r="D454" t="n">
-        <v>60400</v>
-      </c>
-      <c r="E454" t="n">
-        <v>60400</v>
-      </c>
-      <c r="F454" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-4013.790656879999</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C455" t="n">
-        <v>60300</v>
-      </c>
-      <c r="D455" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E455" t="n">
-        <v>60300</v>
-      </c>
-      <c r="F455" t="n">
-        <v>12.398</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-4026.18865688</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C456" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D456" t="n">
-        <v>60250</v>
-      </c>
-      <c r="E456" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F456" t="n">
-        <v>2.2635</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-4028.45215688</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C457" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D457" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E457" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F457" t="n">
-        <v>60.5086</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-4088.96075688</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>60400</v>
-      </c>
-      <c r="C458" t="n">
-        <v>60400</v>
-      </c>
-      <c r="D458" t="n">
-        <v>60400</v>
-      </c>
-      <c r="E458" t="n">
-        <v>60400</v>
-      </c>
-      <c r="F458" t="n">
-        <v>2.984</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-4085.97675688</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>60400</v>
-      </c>
-      <c r="C459" t="n">
-        <v>60400</v>
-      </c>
-      <c r="D459" t="n">
-        <v>60400</v>
-      </c>
-      <c r="E459" t="n">
-        <v>60400</v>
-      </c>
-      <c r="F459" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-4085.97675688</v>
-      </c>
-      <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>60350</v>
-      </c>
-      <c r="C460" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D460" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E460" t="n">
-        <v>60350</v>
-      </c>
-      <c r="F460" t="n">
-        <v>8.762600000000001</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-4094.73935688</v>
-      </c>
-      <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>60250</v>
-      </c>
-      <c r="C461" t="n">
-        <v>60350</v>
-      </c>
-      <c r="D461" t="n">
-        <v>60350</v>
-      </c>
-      <c r="E461" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F461" t="n">
-        <v>19.3482</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-4094.73935688</v>
-      </c>
-      <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C462" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D462" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E462" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F462" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-4109.139356879999</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C463" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D463" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E463" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F463" t="n">
-        <v>3</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-4106.139356879999</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>60200</v>
-      </c>
-      <c r="C464" t="n">
-        <v>60200</v>
-      </c>
-      <c r="D464" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E464" t="n">
-        <v>60200</v>
-      </c>
-      <c r="F464" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-4106.139356879999</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C465" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D465" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E465" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F465" t="n">
-        <v>1.6546</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-4107.793956879999</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>60150</v>
-      </c>
-      <c r="C466" t="n">
-        <v>60150</v>
-      </c>
-      <c r="D466" t="n">
-        <v>60150</v>
-      </c>
-      <c r="E466" t="n">
-        <v>60150</v>
-      </c>
-      <c r="F466" t="n">
-        <v>0.5642</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-4107.793956879999</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>60100</v>
-      </c>
-      <c r="C467" t="n">
-        <v>60050</v>
-      </c>
-      <c r="D467" t="n">
-        <v>60100</v>
-      </c>
-      <c r="E467" t="n">
-        <v>60050</v>
-      </c>
-      <c r="F467" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-4128.993956879999</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16071,10 +15879,14 @@
         <v>-4128.64615688</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>60050</v>
+      </c>
+      <c r="J468" t="n">
+        <v>60150</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16108,10 +15920,14 @@
         <v>-4128.86755688</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>60200</v>
+      </c>
+      <c r="J469" t="n">
+        <v>60150</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16145,10 +15961,14 @@
         <v>-4184.23525688</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>60150</v>
+      </c>
+      <c r="J470" t="n">
+        <v>60150</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,10 +16002,14 @@
         <v>-4758.29345688</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>60000</v>
+      </c>
+      <c r="J471" t="n">
+        <v>60150</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16219,10 +16043,14 @@
         <v>-4770.07085688</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>59900</v>
+      </c>
+      <c r="J472" t="n">
+        <v>60150</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16261,7 +16089,9 @@
       <c r="I473" t="n">
         <v>59850</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>60150</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16300,7 +16130,9 @@
       <c r="I474" t="n">
         <v>59850</v>
       </c>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>60150</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16339,7 +16171,9 @@
       <c r="I475" t="n">
         <v>59800</v>
       </c>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>60150</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16378,7 +16212,9 @@
       <c r="I476" t="n">
         <v>59950</v>
       </c>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>60150</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16417,7 +16253,9 @@
       <c r="I477" t="n">
         <v>59950</v>
       </c>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>60150</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16451,10 +16289,14 @@
         <v>-3806.76665688</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>59950</v>
+      </c>
+      <c r="J478" t="n">
+        <v>60150</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16491,7 +16333,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>60150</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16528,7 +16372,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>60150</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16565,7 +16411,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>60150</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16602,7 +16450,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>60150</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16639,7 +16489,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>60150</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16676,7 +16528,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>60150</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,10 +16564,14 @@
         <v>-3714.632056880001</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>60650</v>
+      </c>
+      <c r="J485" t="n">
+        <v>60150</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16750,7 +16608,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>60150</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16787,7 +16647,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>60150</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,7 +16686,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>60150</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,7 +16725,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>60150</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16898,7 +16764,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>60150</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16935,7 +16803,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>60150</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,7 +16842,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>60150</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17009,7 +16881,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>60150</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17046,7 +16920,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>60150</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17083,7 +16959,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>60150</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17120,7 +16998,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>60150</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,1502 +17034,1778 @@
         <v>-2874.595964110001</v>
       </c>
       <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>62400</v>
+      </c>
+      <c r="C498" t="n">
+        <v>62500</v>
+      </c>
+      <c r="D498" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E498" t="n">
+        <v>62250</v>
+      </c>
+      <c r="F498" t="n">
+        <v>157.4585</v>
+      </c>
+      <c r="G498" t="n">
+        <v>-2717.137464110001</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>62300</v>
+      </c>
+      <c r="C499" t="n">
+        <v>62250</v>
+      </c>
+      <c r="D499" t="n">
+        <v>62300</v>
+      </c>
+      <c r="E499" t="n">
+        <v>62250</v>
+      </c>
+      <c r="F499" t="n">
+        <v>57.8848</v>
+      </c>
+      <c r="G499" t="n">
+        <v>-2775.022264110001</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>62150</v>
+      </c>
+      <c r="C500" t="n">
+        <v>62150</v>
+      </c>
+      <c r="D500" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E500" t="n">
+        <v>62150</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.3154</v>
+      </c>
+      <c r="G500" t="n">
+        <v>-2775.337664110001</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L500" t="n">
+        <v>1</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>62200</v>
+      </c>
+      <c r="C501" t="n">
+        <v>62200</v>
+      </c>
+      <c r="D501" t="n">
+        <v>62350</v>
+      </c>
+      <c r="E501" t="n">
+        <v>62200</v>
+      </c>
+      <c r="F501" t="n">
+        <v>6.7293</v>
+      </c>
+      <c r="G501" t="n">
+        <v>-2768.608364110001</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>62150</v>
+      </c>
+      <c r="C502" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D502" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E502" t="n">
+        <v>62000</v>
+      </c>
+      <c r="F502" t="n">
+        <v>24.3732</v>
+      </c>
+      <c r="G502" t="n">
+        <v>-2792.981564110001</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L502" t="n">
+        <v>1</v>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>62100</v>
+      </c>
+      <c r="C503" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D503" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E503" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="G503" t="n">
+        <v>-2791.409564110001</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>61900</v>
+      </c>
+      <c r="C504" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D504" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E504" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F504" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="G504" t="n">
+        <v>-2864.309564110001</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>62100</v>
+      </c>
+      <c r="C505" t="n">
+        <v>62050</v>
+      </c>
+      <c r="D505" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E505" t="n">
+        <v>62000</v>
+      </c>
+      <c r="F505" t="n">
+        <v>153.2423</v>
+      </c>
+      <c r="G505" t="n">
+        <v>-2711.067264110001</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>62150</v>
+      </c>
+      <c r="C506" t="n">
+        <v>62150</v>
+      </c>
+      <c r="D506" t="n">
+        <v>62150</v>
+      </c>
+      <c r="E506" t="n">
+        <v>62150</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="G506" t="n">
+        <v>-2711.015264110001</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>62100</v>
+      </c>
+      <c r="C507" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D507" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E507" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G507" t="n">
+        <v>-2711.135264110001</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>62050</v>
+      </c>
+      <c r="C508" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D508" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E508" t="n">
+        <v>62050</v>
+      </c>
+      <c r="F508" t="n">
+        <v>39.9393</v>
+      </c>
+      <c r="G508" t="n">
+        <v>-2711.135264110001</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>62200</v>
+      </c>
+      <c r="C509" t="n">
+        <v>62100</v>
+      </c>
+      <c r="D509" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E509" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F509" t="n">
+        <v>30.3725</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-2711.135264110001</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>62350</v>
+      </c>
+      <c r="C510" t="n">
+        <v>62750</v>
+      </c>
+      <c r="D510" t="n">
+        <v>62850</v>
+      </c>
+      <c r="E510" t="n">
+        <v>62350</v>
+      </c>
+      <c r="F510" t="n">
+        <v>182.0152</v>
+      </c>
+      <c r="G510" t="n">
+        <v>-2529.120064110001</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C511" t="n">
+        <v>62650</v>
+      </c>
+      <c r="D511" t="n">
+        <v>62750</v>
+      </c>
+      <c r="E511" t="n">
+        <v>62450</v>
+      </c>
+      <c r="F511" t="n">
+        <v>280.1547</v>
+      </c>
+      <c r="G511" t="n">
+        <v>-2809.274764110001</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C512" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D512" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E512" t="n">
+        <v>62650</v>
+      </c>
+      <c r="F512" t="n">
+        <v>226.915</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-2582.359764110001</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C513" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D513" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E513" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F513" t="n">
+        <v>125.7409</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-2456.618864110001</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L513" t="n">
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C514" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D514" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E514" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F514" t="n">
+        <v>3.94169508</v>
+      </c>
+      <c r="G514" t="n">
+        <v>-2460.560559190001</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C515" t="n">
+        <v>62750</v>
+      </c>
+      <c r="D515" t="n">
+        <v>62750</v>
+      </c>
+      <c r="E515" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F515" t="n">
+        <v>30.8977</v>
+      </c>
+      <c r="G515" t="n">
+        <v>-2491.458259190001</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L515" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C516" t="n">
+        <v>62600</v>
+      </c>
+      <c r="D516" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E516" t="n">
+        <v>62600</v>
+      </c>
+      <c r="F516" t="n">
+        <v>18.8315</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-2510.289759190001</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L516" t="n">
+        <v>1</v>
+      </c>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>62550</v>
+      </c>
+      <c r="C517" t="n">
+        <v>62550</v>
+      </c>
+      <c r="D517" t="n">
+        <v>62550</v>
+      </c>
+      <c r="E517" t="n">
+        <v>62550</v>
+      </c>
+      <c r="F517" t="n">
+        <v>8.6226</v>
+      </c>
+      <c r="G517" t="n">
+        <v>-2518.912359190001</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C518" t="n">
+        <v>62500</v>
+      </c>
+      <c r="D518" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E518" t="n">
+        <v>62500</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1</v>
+      </c>
+      <c r="G518" t="n">
+        <v>-2519.912359190001</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C519" t="n">
+        <v>62600</v>
+      </c>
+      <c r="D519" t="n">
+        <v>62600</v>
+      </c>
+      <c r="E519" t="n">
+        <v>62600</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1</v>
+      </c>
+      <c r="G519" t="n">
+        <v>-2518.912359190001</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L519" t="n">
+        <v>1</v>
+      </c>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C520" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D520" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E520" t="n">
+        <v>62750</v>
+      </c>
+      <c r="F520" t="n">
+        <v>67.10639999999999</v>
+      </c>
+      <c r="G520" t="n">
+        <v>-2451.805959190001</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C521" t="n">
+        <v>62700</v>
+      </c>
+      <c r="D521" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E521" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1.5949</v>
+      </c>
+      <c r="G521" t="n">
+        <v>-2453.400859190001</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>62850</v>
+      </c>
+      <c r="C522" t="n">
+        <v>62850</v>
+      </c>
+      <c r="D522" t="n">
+        <v>62850</v>
+      </c>
+      <c r="E522" t="n">
+        <v>62850</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-2453.300859190001</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C523" t="n">
+        <v>62750</v>
+      </c>
+      <c r="D523" t="n">
+        <v>62750</v>
+      </c>
+      <c r="E523" t="n">
+        <v>62750</v>
+      </c>
+      <c r="F523" t="n">
+        <v>14.8569</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-2468.157759190001</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>62600</v>
+      </c>
+      <c r="C524" t="n">
+        <v>62750</v>
+      </c>
+      <c r="D524" t="n">
+        <v>62750</v>
+      </c>
+      <c r="E524" t="n">
+        <v>62600</v>
+      </c>
+      <c r="F524" t="n">
+        <v>49.1651</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-2468.157759190001</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C525" t="n">
+        <v>62750</v>
+      </c>
+      <c r="D525" t="n">
+        <v>62750</v>
+      </c>
+      <c r="E525" t="n">
+        <v>62750</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-2468.157759190001</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>62850</v>
+      </c>
+      <c r="C526" t="n">
+        <v>62850</v>
+      </c>
+      <c r="D526" t="n">
+        <v>62850</v>
+      </c>
+      <c r="E526" t="n">
+        <v>62850</v>
+      </c>
+      <c r="F526" t="n">
+        <v>11.1546</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-2457.003159190001</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C527" t="n">
+        <v>62850</v>
+      </c>
+      <c r="D527" t="n">
+        <v>62850</v>
+      </c>
+      <c r="E527" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F527" t="n">
+        <v>21.5158</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-2457.003159190001</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C528" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D528" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E528" t="n">
+        <v>62800</v>
+      </c>
+      <c r="F528" t="n">
+        <v>11.0635</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-2468.066659190002</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>62650</v>
+      </c>
+      <c r="C529" t="n">
+        <v>62650</v>
+      </c>
+      <c r="D529" t="n">
+        <v>62650</v>
+      </c>
+      <c r="E529" t="n">
+        <v>62650</v>
+      </c>
+      <c r="F529" t="n">
+        <v>4.1843</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-2472.250959190002</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C530" t="n">
+        <v>62650</v>
+      </c>
+      <c r="D530" t="n">
+        <v>62700</v>
+      </c>
+      <c r="E530" t="n">
+        <v>62650</v>
+      </c>
+      <c r="F530" t="n">
+        <v>25.3125</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-2472.250959190002</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C531" t="n">
+        <v>62850</v>
+      </c>
+      <c r="D531" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E531" t="n">
+        <v>62850</v>
+      </c>
+      <c r="F531" t="n">
+        <v>23.8115</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-2448.439459190002</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>62900</v>
+      </c>
+      <c r="C532" t="n">
+        <v>62950</v>
+      </c>
+      <c r="D532" t="n">
+        <v>62950</v>
+      </c>
+      <c r="E532" t="n">
+        <v>62900</v>
+      </c>
+      <c r="F532" t="n">
+        <v>8.5044</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-2439.935059190002</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>63050</v>
+      </c>
+      <c r="C533" t="n">
+        <v>63050</v>
+      </c>
+      <c r="D533" t="n">
+        <v>63050</v>
+      </c>
+      <c r="E533" t="n">
+        <v>63050</v>
+      </c>
+      <c r="F533" t="n">
+        <v>18.3064</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-2421.628659190002</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C534" t="n">
+        <v>63200</v>
+      </c>
+      <c r="D534" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E534" t="n">
+        <v>63200</v>
+      </c>
+      <c r="F534" t="n">
+        <v>100.2865</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-2321.342159190002</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C535" t="n">
+        <v>63200</v>
+      </c>
+      <c r="D535" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E535" t="n">
+        <v>63200</v>
+      </c>
+      <c r="F535" t="n">
+        <v>15.8177</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-2321.342159190002</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C536" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D536" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E536" t="n">
+        <v>63200</v>
+      </c>
+      <c r="F536" t="n">
+        <v>114.457</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-2206.885159190002</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C537" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D537" t="n">
+        <v>63300</v>
+      </c>
+      <c r="E537" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F537" t="n">
+        <v>13.3191</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-2220.204259190002</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C538" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D538" t="n">
+        <v>63300</v>
+      </c>
+      <c r="E538" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-2220.204259190002</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>63450</v>
+      </c>
+      <c r="C539" t="n">
+        <v>63450</v>
+      </c>
+      <c r="D539" t="n">
+        <v>63450</v>
+      </c>
+      <c r="E539" t="n">
+        <v>63450</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.11000788</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-2220.094251310002</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>63350</v>
+      </c>
+      <c r="C540" t="n">
+        <v>63350</v>
+      </c>
+      <c r="D540" t="n">
+        <v>63350</v>
+      </c>
+      <c r="E540" t="n">
+        <v>63350</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-2220.923251310002</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>63350</v>
+      </c>
+      <c r="C541" t="n">
+        <v>63250</v>
+      </c>
+      <c r="D541" t="n">
+        <v>63350</v>
+      </c>
+      <c r="E541" t="n">
+        <v>63250</v>
+      </c>
+      <c r="F541" t="n">
+        <v>457.6005</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-2678.523751310002</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C542" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D542" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E542" t="n">
+        <v>63500</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-2678.423751310002</v>
+      </c>
+      <c r="H542" t="n">
         <v>2</v>
       </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>60150</v>
+      </c>
+      <c r="K542" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L497" t="inlineStr"/>
-      <c r="M497" t="inlineStr"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>62400</v>
-      </c>
-      <c r="C498" t="n">
-        <v>62500</v>
-      </c>
-      <c r="D498" t="n">
-        <v>62500</v>
-      </c>
-      <c r="E498" t="n">
-        <v>62250</v>
-      </c>
-      <c r="F498" t="n">
-        <v>157.4585</v>
-      </c>
-      <c r="G498" t="n">
-        <v>-2717.137464110001</v>
-      </c>
-      <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
-      <c r="M498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>62300</v>
-      </c>
-      <c r="C499" t="n">
-        <v>62250</v>
-      </c>
-      <c r="D499" t="n">
-        <v>62300</v>
-      </c>
-      <c r="E499" t="n">
-        <v>62250</v>
-      </c>
-      <c r="F499" t="n">
-        <v>57.8848</v>
-      </c>
-      <c r="G499" t="n">
-        <v>-2775.022264110001</v>
-      </c>
-      <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="n">
-        <v>1</v>
-      </c>
-      <c r="M499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>62150</v>
-      </c>
-      <c r="C500" t="n">
-        <v>62150</v>
-      </c>
-      <c r="D500" t="n">
-        <v>62150</v>
-      </c>
-      <c r="E500" t="n">
-        <v>62150</v>
-      </c>
-      <c r="F500" t="n">
-        <v>0.3154</v>
-      </c>
-      <c r="G500" t="n">
-        <v>-2775.337664110001</v>
-      </c>
-      <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C501" t="n">
-        <v>62200</v>
-      </c>
-      <c r="D501" t="n">
-        <v>62350</v>
-      </c>
-      <c r="E501" t="n">
-        <v>62200</v>
-      </c>
-      <c r="F501" t="n">
-        <v>6.7293</v>
-      </c>
-      <c r="G501" t="n">
-        <v>-2768.608364110001</v>
-      </c>
-      <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>62150</v>
-      </c>
-      <c r="C502" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D502" t="n">
-        <v>62150</v>
-      </c>
-      <c r="E502" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F502" t="n">
-        <v>24.3732</v>
-      </c>
-      <c r="G502" t="n">
-        <v>-2792.981564110001</v>
-      </c>
-      <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
-      <c r="M502" t="inlineStr"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>62100</v>
-      </c>
-      <c r="C503" t="n">
-        <v>62100</v>
-      </c>
-      <c r="D503" t="n">
-        <v>62100</v>
-      </c>
-      <c r="E503" t="n">
-        <v>62100</v>
-      </c>
-      <c r="F503" t="n">
-        <v>1.572</v>
-      </c>
-      <c r="G503" t="n">
-        <v>-2791.409564110001</v>
-      </c>
-      <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="n">
-        <v>1</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>61900</v>
-      </c>
-      <c r="C504" t="n">
-        <v>62000</v>
-      </c>
-      <c r="D504" t="n">
-        <v>62000</v>
-      </c>
-      <c r="E504" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F504" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="G504" t="n">
-        <v>-2864.309564110001</v>
-      </c>
-      <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>62100</v>
-      </c>
-      <c r="C505" t="n">
-        <v>62050</v>
-      </c>
-      <c r="D505" t="n">
-        <v>62150</v>
-      </c>
-      <c r="E505" t="n">
-        <v>62000</v>
-      </c>
-      <c r="F505" t="n">
-        <v>153.2423</v>
-      </c>
-      <c r="G505" t="n">
-        <v>-2711.067264110001</v>
-      </c>
-      <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>62150</v>
-      </c>
-      <c r="C506" t="n">
-        <v>62150</v>
-      </c>
-      <c r="D506" t="n">
-        <v>62150</v>
-      </c>
-      <c r="E506" t="n">
-        <v>62150</v>
-      </c>
-      <c r="F506" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="G506" t="n">
-        <v>-2711.015264110001</v>
-      </c>
-      <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>62100</v>
-      </c>
-      <c r="C507" t="n">
-        <v>62100</v>
-      </c>
-      <c r="D507" t="n">
-        <v>62100</v>
-      </c>
-      <c r="E507" t="n">
-        <v>62100</v>
-      </c>
-      <c r="F507" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G507" t="n">
-        <v>-2711.135264110001</v>
-      </c>
-      <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="n">
-        <v>1</v>
-      </c>
-      <c r="M507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>62050</v>
-      </c>
-      <c r="C508" t="n">
-        <v>62100</v>
-      </c>
-      <c r="D508" t="n">
-        <v>62100</v>
-      </c>
-      <c r="E508" t="n">
-        <v>62050</v>
-      </c>
-      <c r="F508" t="n">
-        <v>39.9393</v>
-      </c>
-      <c r="G508" t="n">
-        <v>-2711.135264110001</v>
-      </c>
-      <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>62200</v>
-      </c>
-      <c r="C509" t="n">
-        <v>62100</v>
-      </c>
-      <c r="D509" t="n">
-        <v>62200</v>
-      </c>
-      <c r="E509" t="n">
-        <v>62100</v>
-      </c>
-      <c r="F509" t="n">
-        <v>30.3725</v>
-      </c>
-      <c r="G509" t="n">
-        <v>-2711.135264110001</v>
-      </c>
-      <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
-      <c r="M509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>62350</v>
-      </c>
-      <c r="C510" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D510" t="n">
-        <v>62850</v>
-      </c>
-      <c r="E510" t="n">
-        <v>62350</v>
-      </c>
-      <c r="F510" t="n">
-        <v>182.0152</v>
-      </c>
-      <c r="G510" t="n">
-        <v>-2529.120064110001</v>
-      </c>
-      <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
-      <c r="M510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>62750</v>
-      </c>
-      <c r="C511" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D511" t="n">
-        <v>62750</v>
-      </c>
-      <c r="E511" t="n">
-        <v>62450</v>
-      </c>
-      <c r="F511" t="n">
-        <v>280.1547</v>
-      </c>
-      <c r="G511" t="n">
-        <v>-2809.274764110001</v>
-      </c>
-      <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>62650</v>
-      </c>
-      <c r="C512" t="n">
-        <v>62800</v>
-      </c>
-      <c r="D512" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E512" t="n">
-        <v>62650</v>
-      </c>
-      <c r="F512" t="n">
-        <v>226.915</v>
-      </c>
-      <c r="G512" t="n">
-        <v>-2582.359764110001</v>
-      </c>
-      <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C513" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D513" t="n">
-        <v>63200</v>
-      </c>
-      <c r="E513" t="n">
-        <v>63000</v>
-      </c>
-      <c r="F513" t="n">
-        <v>125.7409</v>
-      </c>
-      <c r="G513" t="n">
-        <v>-2456.618864110001</v>
-      </c>
-      <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>63100</v>
-      </c>
-      <c r="C514" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D514" t="n">
-        <v>63100</v>
-      </c>
-      <c r="E514" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F514" t="n">
-        <v>3.94169508</v>
-      </c>
-      <c r="G514" t="n">
-        <v>-2460.560559190001</v>
-      </c>
-      <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>62700</v>
-      </c>
-      <c r="C515" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D515" t="n">
-        <v>62750</v>
-      </c>
-      <c r="E515" t="n">
-        <v>62700</v>
-      </c>
-      <c r="F515" t="n">
-        <v>30.8977</v>
-      </c>
-      <c r="G515" t="n">
-        <v>-2491.458259190001</v>
-      </c>
-      <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="n">
-        <v>1</v>
-      </c>
-      <c r="M515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>62700</v>
-      </c>
-      <c r="C516" t="n">
-        <v>62600</v>
-      </c>
-      <c r="D516" t="n">
-        <v>62700</v>
-      </c>
-      <c r="E516" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F516" t="n">
-        <v>18.8315</v>
-      </c>
-      <c r="G516" t="n">
-        <v>-2510.289759190001</v>
-      </c>
-      <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="n">
-        <v>1</v>
-      </c>
-      <c r="M516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>62550</v>
-      </c>
-      <c r="C517" t="n">
-        <v>62550</v>
-      </c>
-      <c r="D517" t="n">
-        <v>62550</v>
-      </c>
-      <c r="E517" t="n">
-        <v>62550</v>
-      </c>
-      <c r="F517" t="n">
-        <v>8.6226</v>
-      </c>
-      <c r="G517" t="n">
-        <v>-2518.912359190001</v>
-      </c>
-      <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>62500</v>
-      </c>
-      <c r="C518" t="n">
-        <v>62500</v>
-      </c>
-      <c r="D518" t="n">
-        <v>62500</v>
-      </c>
-      <c r="E518" t="n">
-        <v>62500</v>
-      </c>
-      <c r="F518" t="n">
-        <v>1</v>
-      </c>
-      <c r="G518" t="n">
-        <v>-2519.912359190001</v>
-      </c>
-      <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
-      <c r="M518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C519" t="n">
-        <v>62600</v>
-      </c>
-      <c r="D519" t="n">
-        <v>62600</v>
-      </c>
-      <c r="E519" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F519" t="n">
-        <v>1</v>
-      </c>
-      <c r="G519" t="n">
-        <v>-2518.912359190001</v>
-      </c>
-      <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
-      <c r="M519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>62750</v>
-      </c>
-      <c r="C520" t="n">
-        <v>62900</v>
-      </c>
-      <c r="D520" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E520" t="n">
-        <v>62750</v>
-      </c>
-      <c r="F520" t="n">
-        <v>67.10639999999999</v>
-      </c>
-      <c r="G520" t="n">
-        <v>-2451.805959190001</v>
-      </c>
-      <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>62700</v>
-      </c>
-      <c r="C521" t="n">
-        <v>62700</v>
-      </c>
-      <c r="D521" t="n">
-        <v>62700</v>
-      </c>
-      <c r="E521" t="n">
-        <v>62700</v>
-      </c>
-      <c r="F521" t="n">
-        <v>1.5949</v>
-      </c>
-      <c r="G521" t="n">
-        <v>-2453.400859190001</v>
-      </c>
-      <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>62850</v>
-      </c>
-      <c r="C522" t="n">
-        <v>62850</v>
-      </c>
-      <c r="D522" t="n">
-        <v>62850</v>
-      </c>
-      <c r="E522" t="n">
-        <v>62850</v>
-      </c>
-      <c r="F522" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-2453.300859190001</v>
-      </c>
-      <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>62750</v>
-      </c>
-      <c r="C523" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D523" t="n">
-        <v>62750</v>
-      </c>
-      <c r="E523" t="n">
-        <v>62750</v>
-      </c>
-      <c r="F523" t="n">
-        <v>14.8569</v>
-      </c>
-      <c r="G523" t="n">
-        <v>-2468.157759190001</v>
-      </c>
-      <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>62600</v>
-      </c>
-      <c r="C524" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D524" t="n">
-        <v>62750</v>
-      </c>
-      <c r="E524" t="n">
-        <v>62600</v>
-      </c>
-      <c r="F524" t="n">
-        <v>49.1651</v>
-      </c>
-      <c r="G524" t="n">
-        <v>-2468.157759190001</v>
-      </c>
-      <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>62750</v>
-      </c>
-      <c r="C525" t="n">
-        <v>62750</v>
-      </c>
-      <c r="D525" t="n">
-        <v>62750</v>
-      </c>
-      <c r="E525" t="n">
-        <v>62750</v>
-      </c>
-      <c r="F525" t="n">
-        <v>0.4204</v>
-      </c>
-      <c r="G525" t="n">
-        <v>-2468.157759190001</v>
-      </c>
-      <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>62850</v>
-      </c>
-      <c r="C526" t="n">
-        <v>62850</v>
-      </c>
-      <c r="D526" t="n">
-        <v>62850</v>
-      </c>
-      <c r="E526" t="n">
-        <v>62850</v>
-      </c>
-      <c r="F526" t="n">
-        <v>11.1546</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-2457.003159190001</v>
-      </c>
-      <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>62800</v>
-      </c>
-      <c r="C527" t="n">
-        <v>62850</v>
-      </c>
-      <c r="D527" t="n">
-        <v>62850</v>
-      </c>
-      <c r="E527" t="n">
-        <v>62800</v>
-      </c>
-      <c r="F527" t="n">
-        <v>21.5158</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-2457.003159190001</v>
-      </c>
-      <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>62800</v>
-      </c>
-      <c r="C528" t="n">
-        <v>62800</v>
-      </c>
-      <c r="D528" t="n">
-        <v>62800</v>
-      </c>
-      <c r="E528" t="n">
-        <v>62800</v>
-      </c>
-      <c r="F528" t="n">
-        <v>11.0635</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-2468.066659190002</v>
-      </c>
-      <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>62650</v>
-      </c>
-      <c r="C529" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D529" t="n">
-        <v>62650</v>
-      </c>
-      <c r="E529" t="n">
-        <v>62650</v>
-      </c>
-      <c r="F529" t="n">
-        <v>4.1843</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-2472.250959190002</v>
-      </c>
-      <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>62700</v>
-      </c>
-      <c r="C530" t="n">
-        <v>62650</v>
-      </c>
-      <c r="D530" t="n">
-        <v>62700</v>
-      </c>
-      <c r="E530" t="n">
-        <v>62650</v>
-      </c>
-      <c r="F530" t="n">
-        <v>25.3125</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-2472.250959190002</v>
-      </c>
-      <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C531" t="n">
-        <v>62850</v>
-      </c>
-      <c r="D531" t="n">
-        <v>62900</v>
-      </c>
-      <c r="E531" t="n">
-        <v>62850</v>
-      </c>
-      <c r="F531" t="n">
-        <v>23.8115</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-2448.439459190002</v>
-      </c>
-      <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>62900</v>
-      </c>
-      <c r="C532" t="n">
-        <v>62950</v>
-      </c>
-      <c r="D532" t="n">
-        <v>62950</v>
-      </c>
-      <c r="E532" t="n">
-        <v>62900</v>
-      </c>
-      <c r="F532" t="n">
-        <v>8.5044</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-2439.935059190002</v>
-      </c>
-      <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>63050</v>
-      </c>
-      <c r="C533" t="n">
-        <v>63050</v>
-      </c>
-      <c r="D533" t="n">
-        <v>63050</v>
-      </c>
-      <c r="E533" t="n">
-        <v>63050</v>
-      </c>
-      <c r="F533" t="n">
-        <v>18.3064</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-2421.628659190002</v>
-      </c>
-      <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>63200</v>
-      </c>
-      <c r="C534" t="n">
-        <v>63200</v>
-      </c>
-      <c r="D534" t="n">
-        <v>63200</v>
-      </c>
-      <c r="E534" t="n">
-        <v>63200</v>
-      </c>
-      <c r="F534" t="n">
-        <v>100.2865</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-2321.342159190002</v>
-      </c>
-      <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>63200</v>
-      </c>
-      <c r="C535" t="n">
-        <v>63200</v>
-      </c>
-      <c r="D535" t="n">
-        <v>63200</v>
-      </c>
-      <c r="E535" t="n">
-        <v>63200</v>
-      </c>
-      <c r="F535" t="n">
-        <v>15.8177</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-2321.342159190002</v>
-      </c>
-      <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>63200</v>
-      </c>
-      <c r="C536" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D536" t="n">
-        <v>63400</v>
-      </c>
-      <c r="E536" t="n">
-        <v>63200</v>
-      </c>
-      <c r="F536" t="n">
-        <v>114.457</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-2206.885159190002</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C537" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D537" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E537" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F537" t="n">
-        <v>13.3191</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-2220.204259190002</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>63300</v>
-      </c>
-      <c r="C538" t="n">
-        <v>63300</v>
-      </c>
-      <c r="D538" t="n">
-        <v>63300</v>
-      </c>
-      <c r="E538" t="n">
-        <v>63300</v>
-      </c>
-      <c r="F538" t="n">
-        <v>0.3384</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-2220.204259190002</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>63450</v>
-      </c>
-      <c r="C539" t="n">
-        <v>63450</v>
-      </c>
-      <c r="D539" t="n">
-        <v>63450</v>
-      </c>
-      <c r="E539" t="n">
-        <v>63450</v>
-      </c>
-      <c r="F539" t="n">
-        <v>0.11000788</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-2220.094251310002</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>63350</v>
-      </c>
-      <c r="C540" t="n">
-        <v>63350</v>
-      </c>
-      <c r="D540" t="n">
-        <v>63350</v>
-      </c>
-      <c r="E540" t="n">
-        <v>63350</v>
-      </c>
-      <c r="F540" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-2220.923251310002</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>63350</v>
-      </c>
-      <c r="C541" t="n">
-        <v>63250</v>
-      </c>
-      <c r="D541" t="n">
-        <v>63350</v>
-      </c>
-      <c r="E541" t="n">
-        <v>63250</v>
-      </c>
-      <c r="F541" t="n">
-        <v>457.6005</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-2678.523751310002</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C542" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D542" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E542" t="n">
-        <v>63500</v>
-      </c>
-      <c r="F542" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-2678.423751310002</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
+        <v>1.050694098088113</v>
+      </c>
+      <c r="M542" t="n">
+        <v>1.078613693998309</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
